--- a/simulations/cleaned_inclusion_exclusion/Meijboom_2021 IEC_clean/output/tables/metrics/metrics_sim.xlsx
+++ b/simulations/cleaned_inclusion_exclusion/Meijboom_2021 IEC_clean/output/tables/metrics/metrics_sim.xlsx
@@ -713,10 +713,10 @@
         <v>36</v>
       </c>
       <c r="C3">
-        <v>0.02702702702702703</v>
+        <v>0.6486486486486487</v>
       </c>
       <c r="D3">
-        <v>0.8108108108108109</v>
+        <v>0.9459459459459459</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -728,16 +728,16 @@
         <v>1</v>
       </c>
       <c r="H3">
-        <v>0.6167800453514739</v>
+        <v>0.6870748299319728</v>
       </c>
       <c r="I3">
-        <v>0.177354869662562</v>
+        <v>0.07570766032304493</v>
       </c>
       <c r="J3">
-        <v>-0.08108108108108109</v>
+        <v>0.5405405405405406</v>
       </c>
       <c r="K3">
-        <v>168.8648648648649</v>
+        <v>82.97297297297297</v>
       </c>
       <c r="L3">
         <v>3</v>
@@ -755,34 +755,34 @@
         <v>33</v>
       </c>
       <c r="Q3">
-        <v>90</v>
+        <v>8</v>
       </c>
       <c r="R3">
-        <v>97</v>
+        <v>17</v>
       </c>
       <c r="S3">
-        <v>113</v>
+        <v>38</v>
       </c>
       <c r="T3">
-        <v>158</v>
+        <v>79</v>
       </c>
       <c r="U3">
-        <v>232</v>
+        <v>161</v>
       </c>
       <c r="V3">
-        <v>755</v>
+        <v>837</v>
       </c>
       <c r="W3">
-        <v>748</v>
+        <v>828</v>
       </c>
       <c r="X3">
-        <v>732</v>
+        <v>807</v>
       </c>
       <c r="Y3">
-        <v>687</v>
+        <v>766</v>
       </c>
       <c r="Z3">
-        <v>613</v>
+        <v>684</v>
       </c>
       <c r="AA3">
         <v>34</v>
@@ -800,19 +800,19 @@
         <v>4</v>
       </c>
       <c r="AF3">
-        <v>0.893491</v>
+        <v>0.990533</v>
       </c>
       <c r="AG3">
-        <v>0.885207</v>
+        <v>0.979882</v>
       </c>
       <c r="AH3">
-        <v>0.866272</v>
+        <v>0.95503</v>
       </c>
       <c r="AI3">
-        <v>0.813018</v>
+        <v>0.906509</v>
       </c>
       <c r="AJ3">
-        <v>0.725444</v>
+        <v>0.809467</v>
       </c>
     </row>
   </sheetData>
